--- a/courses.xlsx
+++ b/courses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limuyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limuyu/Documents/GitHub/hanqing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04837BCC-EC15-DD44-9D87-E8BFDEFE9EA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4C0A17-F8D4-2E4A-AE31-CFC6983AD18D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D0713C46-0F6C-4D9E-910D-4724177FE50C}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D0713C46-0F6C-4D9E-910D-4724177FE50C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1664,9 +1664,12 @@
       <formula>$F43&lt;$G43</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E44" xr:uid="{B63DB1CD-2556-4180-A388-0D4D3D9AD1D3}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43:E44 E39:E41 E35:E37 E28:E33 E19:E26 E12:E16 E6:E10" xr:uid="{B63DB1CD-2556-4180-A388-0D4D3D9AD1D3}">
       <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E11 E17:E18 E27 E34 E38 E42" xr:uid="{51E992AD-5194-E041-9241-D80E33969C12}">
+      <formula1>"1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
